--- a/xlsx/山姆大叔_intext.xlsx
+++ b/xlsx/山姆大叔_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="601">
   <si>
     <t>山姆大叔</t>
   </si>
@@ -29,7 +29,7 @@
     <t>宣传画</t>
   </si>
   <si>
-    <t>政策_政策_美國_山姆大叔</t>
+    <t>政策_政策_美国_山姆大叔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%AC%E4%BA%BA%E5%8C%96</t>
   </si>
   <si>
-    <t>擬人化</t>
+    <t>拟人化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%B1%A1</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E6%9C%8D</t>
   </si>
   <si>
-    <t>禮服</t>
+    <t>礼服</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9D%A1%E6%97%97</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E5%A1%9E%E5%8B%92%E7%B8%A3_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>倫塞勒縣 (紐約州)</t>
+    <t>伦塞勒县 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B1%E7%A8%B1</t>
   </si>
   <si>
-    <t>暱稱</t>
+    <t>暱称</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>合眾國</t>
+    <t>合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E6%AF%8D%E4%BA%B2</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D</t>
   </si>
   <si>
-    <t>龍</t>
+    <t>龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E5%85%B5%E5%B8%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>好兵帥克</t>
+    <t>好兵帅克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E7%B1%B3%E6%AD%87%E7%88%BE</t>
   </si>
   <si>
-    <t>德意志米歇爾</t>
+    <t>德意志米歇尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E5%A6%AE%E5%A8%85</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%AF%8D%E8%A6%AA</t>
   </si>
   <si>
-    <t>俄羅斯母親</t>
+    <t>俄罗斯母亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%9B%95</t>
   </si>
   <si>
-    <t>白頭海雕</t>
+    <t>白头海雕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -809,9 +809,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
-    <t>美国国会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -893,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -911,13 +908,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -1061,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -1073,13 +1070,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -1091,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -1109,13 +1106,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1175,13 +1172,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1193,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1205,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1217,13 +1214,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1247,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1313,15 +1310,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1331,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1385,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1421,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1439,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1475,19 +1469,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1499,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1553,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9D%99%E8%9D%A0%E4%BF%A0</t>
   </si>
   <si>
-    <t>蝙蝠俠</t>
+    <t>蝙蝠侠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E8%B7%AF%E7%91%9F</t>
@@ -1613,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%C2%B7%E5%B7%B4%E8%B5%AB</t>
   </si>
   <si>
-    <t>亞瑟·巴赫</t>
+    <t>亚瑟·巴赫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ebenezer_Scrooge</t>
@@ -1625,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%BF%E6%8B%89%C2%B7%E5%8D%A1%E8%8A%99%E7%89%B9</t>
   </si>
   <si>
-    <t>蘿拉·卡芙特</t>
+    <t>萝拉·卡芙特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E4%BF%AE%E6%96%AF%C2%B7%E9%A9%AC%E5%B0%94%E7%A6%8F</t>
@@ -1643,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%90%B5%E4%BA%BA</t>
   </si>
   <si>
-    <t>鋼鐵人</t>
+    <t>钢铁人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tony_Montana</t>
@@ -1727,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>白齊克</t>
+    <t>白齐克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lucille_Bluth</t>
@@ -1745,13 +1739,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%C2%B7%E8%B2%9D%E5%85%A7%E7%89%B9_(%E8%BE%A6%E5%85%AC%E5%AE%A4%E8%A7%92%E8%89%B2)</t>
   </si>
   <si>
-    <t>喬·貝內特 (辦公室角色)</t>
+    <t>乔·贝内特 (办公室角色)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%BC%97%E7%91%9E%C2%B7%E5%8B%92%E4%BF%9D%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>傑弗瑞·勒保斯基</t>
+    <t>杰弗瑞·勒保斯基</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Flintheart_Glomgold</t>
@@ -1763,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%94%98_(%E9%9B%BB%E5%BD%B1%E8%A7%92%E8%89%B2)</t>
   </si>
   <si>
-    <t>阿甘 (電影角色)</t>
+    <t>阿甘 (电影角色)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%89%E4%B8%9D%C2%B7%E8%8E%8E%E5%85%B0%E5%BE%B7</t>
@@ -1787,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%AC%BD%C2%B7%E6%A0%BC%E9%9B%B7</t>
   </si>
   <si>
-    <t>克里斯欽·格雷</t>
+    <t>克里斯钦·格雷</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Walden_Schmidt</t>
@@ -1811,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5993,7 +5987,7 @@
         <v>263</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6019,10 +6013,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6048,10 +6042,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6077,10 +6071,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6106,10 +6100,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6135,10 +6129,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6164,10 +6158,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6193,10 +6187,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6222,10 +6216,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6251,10 +6245,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6280,10 +6274,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6309,10 +6303,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6338,10 +6332,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6367,10 +6361,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6396,10 +6390,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6425,10 +6419,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6454,10 +6448,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6483,10 +6477,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6512,10 +6506,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6541,10 +6535,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6570,10 +6564,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6599,10 +6593,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6628,10 +6622,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6657,10 +6651,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6686,10 +6680,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6715,10 +6709,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6744,10 +6738,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6773,10 +6767,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -6802,10 +6796,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6831,10 +6825,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6860,10 +6854,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6889,10 +6883,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6918,10 +6912,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6947,10 +6941,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6976,10 +6970,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7005,10 +6999,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7034,10 +7028,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7063,10 +7057,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7092,10 +7086,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7121,10 +7115,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7150,10 +7144,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7179,10 +7173,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7208,10 +7202,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7237,10 +7231,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7266,10 +7260,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7295,10 +7289,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7324,10 +7318,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7353,10 +7347,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7382,10 +7376,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7411,10 +7405,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7440,10 +7434,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7469,10 +7463,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
         <v>365</v>
-      </c>
-      <c r="F183" t="s">
-        <v>366</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7498,10 +7492,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
         <v>367</v>
-      </c>
-      <c r="F184" t="s">
-        <v>368</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7527,10 +7521,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
         <v>369</v>
-      </c>
-      <c r="F185" t="s">
-        <v>370</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7556,10 +7550,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" t="s">
         <v>371</v>
-      </c>
-      <c r="F186" t="s">
-        <v>372</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7585,10 +7579,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
         <v>373</v>
-      </c>
-      <c r="F187" t="s">
-        <v>374</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7614,10 +7608,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
         <v>375</v>
-      </c>
-      <c r="F188" t="s">
-        <v>376</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7643,10 +7637,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" t="s">
         <v>377</v>
-      </c>
-      <c r="F189" t="s">
-        <v>378</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7672,10 +7666,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
         <v>379</v>
-      </c>
-      <c r="F190" t="s">
-        <v>380</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7701,10 +7695,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" t="s">
         <v>381</v>
-      </c>
-      <c r="F191" t="s">
-        <v>382</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7730,10 +7724,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
         <v>383</v>
-      </c>
-      <c r="F192" t="s">
-        <v>384</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7759,10 +7753,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="F193" t="s">
         <v>385</v>
-      </c>
-      <c r="F193" t="s">
-        <v>386</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7788,10 +7782,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
         <v>387</v>
-      </c>
-      <c r="F194" t="s">
-        <v>388</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7817,10 +7811,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
         <v>389</v>
-      </c>
-      <c r="F195" t="s">
-        <v>390</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7846,10 +7840,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" t="s">
         <v>391</v>
-      </c>
-      <c r="F196" t="s">
-        <v>392</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7875,10 +7869,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>392</v>
+      </c>
+      <c r="F197" t="s">
         <v>393</v>
-      </c>
-      <c r="F197" t="s">
-        <v>394</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7904,10 +7898,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" t="s">
         <v>395</v>
-      </c>
-      <c r="F198" t="s">
-        <v>396</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7933,10 +7927,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
         <v>397</v>
-      </c>
-      <c r="F199" t="s">
-        <v>398</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7962,10 +7956,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>398</v>
+      </c>
+      <c r="F200" t="s">
         <v>399</v>
-      </c>
-      <c r="F200" t="s">
-        <v>400</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7991,10 +7985,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>400</v>
+      </c>
+      <c r="F201" t="s">
         <v>401</v>
-      </c>
-      <c r="F201" t="s">
-        <v>402</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8020,10 +8014,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" t="s">
         <v>403</v>
-      </c>
-      <c r="F202" t="s">
-        <v>404</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8049,10 +8043,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
         <v>405</v>
-      </c>
-      <c r="F203" t="s">
-        <v>406</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8078,10 +8072,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" t="s">
         <v>407</v>
-      </c>
-      <c r="F204" t="s">
-        <v>408</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8107,10 +8101,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>408</v>
+      </c>
+      <c r="F205" t="s">
         <v>409</v>
-      </c>
-      <c r="F205" t="s">
-        <v>410</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -8136,10 +8130,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" t="s">
         <v>411</v>
-      </c>
-      <c r="F206" t="s">
-        <v>412</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8165,10 +8159,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>412</v>
+      </c>
+      <c r="F207" t="s">
         <v>413</v>
-      </c>
-      <c r="F207" t="s">
-        <v>414</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8194,10 +8188,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" t="s">
         <v>415</v>
-      </c>
-      <c r="F208" t="s">
-        <v>416</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8223,10 +8217,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
         <v>417</v>
-      </c>
-      <c r="F209" t="s">
-        <v>418</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8252,10 +8246,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8281,10 +8275,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8310,10 +8304,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8339,10 +8333,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>5</v>
@@ -8368,10 +8362,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
         <v>427</v>
-      </c>
-      <c r="F214" t="s">
-        <v>428</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8397,10 +8391,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
         <v>429</v>
-      </c>
-      <c r="F215" t="s">
-        <v>430</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8426,10 +8420,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
         <v>431</v>
-      </c>
-      <c r="F216" t="s">
-        <v>432</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8455,10 +8449,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8484,10 +8478,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8513,10 +8507,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8542,10 +8536,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F220" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8571,10 +8565,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8600,10 +8594,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -8629,10 +8623,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F223" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8658,10 +8652,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8687,10 +8681,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F225" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8716,10 +8710,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8745,10 +8739,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8774,10 +8768,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8803,10 +8797,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F229" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8832,10 +8826,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -8861,10 +8855,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F231" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8890,10 +8884,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F232" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8919,10 +8913,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8948,10 +8942,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8977,10 +8971,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9006,10 +9000,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9035,10 +9029,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9064,10 +9058,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F238" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9093,10 +9087,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F239" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9122,10 +9116,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F240" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9151,10 +9145,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F241" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9180,10 +9174,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F242" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9209,10 +9203,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F243" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9238,10 +9232,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F244" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9267,10 +9261,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F245" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9296,10 +9290,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F246" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9325,10 +9319,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F247" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9354,10 +9348,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F248" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9383,10 +9377,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F249" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9412,10 +9406,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F250" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9441,10 +9435,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F251" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G251" t="n">
         <v>9</v>
@@ -9470,10 +9464,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F252" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -9499,10 +9493,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F253" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G253" t="n">
         <v>8</v>
@@ -9528,10 +9522,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F254" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G254" t="n">
         <v>6</v>
@@ -9557,10 +9551,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F255" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G255" t="n">
         <v>4</v>
@@ -9586,10 +9580,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F256" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G256" t="n">
         <v>9</v>
@@ -9615,10 +9609,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F257" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9644,10 +9638,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F258" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9673,10 +9667,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F259" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9702,10 +9696,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F260" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G260" t="n">
         <v>9</v>
@@ -9731,10 +9725,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F261" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G261" t="n">
         <v>3</v>
@@ -9760,10 +9754,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F262" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9789,10 +9783,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F263" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -9818,10 +9812,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F264" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -9847,10 +9841,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F265" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G265" t="n">
         <v>7</v>
@@ -9876,10 +9870,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F266" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -9905,10 +9899,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F267" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -9934,10 +9928,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F268" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G268" t="n">
         <v>4</v>
@@ -9963,10 +9957,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F269" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G269" t="n">
         <v>3</v>
@@ -9992,10 +9986,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F270" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G270" t="n">
         <v>5</v>
@@ -10021,10 +10015,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F271" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G271" t="n">
         <v>7</v>
@@ -10050,10 +10044,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F272" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10079,10 +10073,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F273" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10108,10 +10102,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F274" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10137,10 +10131,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F275" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10166,10 +10160,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F276" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10195,10 +10189,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F277" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10224,10 +10218,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F278" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10253,10 +10247,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F279" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10282,10 +10276,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F280" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10311,10 +10305,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F281" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -10340,10 +10334,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F282" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G282" t="n">
         <v>4</v>
@@ -10369,10 +10363,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F283" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10398,10 +10392,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F284" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10427,10 +10421,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F285" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10456,10 +10450,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F286" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10485,10 +10479,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F287" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -10514,10 +10508,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F288" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10543,10 +10537,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F289" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10572,10 +10566,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F290" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10601,10 +10595,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F291" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10630,10 +10624,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F292" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10659,10 +10653,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F293" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -10688,10 +10682,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F294" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10717,10 +10711,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F295" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10746,10 +10740,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F296" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10775,10 +10769,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F297" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10804,10 +10798,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F298" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G298" t="n">
         <v>6</v>
@@ -10833,10 +10827,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F299" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -10862,10 +10856,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F300" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10891,10 +10885,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F301" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
